--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fede/Python/ECSEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC9264-5AD7-F74D-821F-B8CFF915A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870A0D4C-967A-A341-96FD-ECB0A2A910F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1246">
   <si>
     <t>Name</t>
   </si>
@@ -3758,6 +3758,9 @@
   </si>
   <si>
     <t>AMS-OSRAM</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -4124,7 +4127,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4133,6 +4136,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1245</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1149</v>
       </c>
